--- a/22_顧客名簿.xlsx
+++ b/22_顧客名簿.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\am\Documents\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2150F3B6-BD39-4E23-A6A4-060402A376EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8964" xr2:uid="{94686502-D2FB-43B6-802A-BBA2D8AF10DE}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8964"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="83">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1"/>
@@ -89,16 +88,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>田中　桃子</t>
-    <rPh sb="0" eb="2">
-      <t>タナカ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>モモコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>女</t>
     <rPh sb="0" eb="1">
       <t>オンナ</t>
@@ -117,29 +106,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>東京都世田谷区羽根木x-x-x</t>
-    <rPh sb="0" eb="3">
-      <t>トウキョウト</t>
-    </rPh>
-    <rPh sb="3" eb="7">
-      <t>セタガヤク</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ハネ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>伊勢　洋司</t>
-    <rPh sb="0" eb="2">
-      <t>イセ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヨウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>男</t>
     <rPh sb="0" eb="1">
       <t>オトコ</t>
@@ -171,16 +137,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>小林　希美</t>
-    <rPh sb="0" eb="2">
-      <t>コバヤシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ノゾミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>主婦</t>
     <rPh sb="0" eb="2">
       <t>シュフ</t>
@@ -192,67 +148,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>埼玉県川口市柳根町x-x-x</t>
-    <rPh sb="0" eb="3">
-      <t>サイタマケン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>カワグチシ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ヤナギ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ネ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>マチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>萩原　芳夫</t>
-    <rPh sb="0" eb="2">
-      <t>ハギワラ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヨシオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フリーター</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>279-0012</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>千葉県浦安市入船x-x-x</t>
-    <rPh sb="0" eb="3">
-      <t>チバケン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ウラヤスシ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>イリフネ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>〇〇プラザ205</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>内田　恵子</t>
-    <rPh sb="0" eb="2">
-      <t>ウチダ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケイコ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -267,29 +167,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>東京都港区白金x-x-x</t>
-    <rPh sb="0" eb="3">
-      <t>トウキョウト</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミナトク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シロカネ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>三上　信一</t>
-    <rPh sb="0" eb="2">
-      <t>ミカミ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シンイチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>248-0024</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -310,195 +187,35 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>北山　寛子</t>
-    <rPh sb="0" eb="2">
-      <t>キタヤマ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒロコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>182-0002</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>東京都調布市仙川町x-x-x</t>
-    <rPh sb="0" eb="3">
-      <t>トウキョウト</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チョウフシ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>センカワチョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ハイツ〇〇102</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>高木　和美</t>
-    <rPh sb="0" eb="2">
-      <t>タカギ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カズミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>601-8478</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>京都府京都市南区東寺町x-x</t>
-    <rPh sb="0" eb="3">
-      <t>キョウトフ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>キョウトシ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ミナミク</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>トウジチョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中村　泰輔</t>
-    <rPh sb="0" eb="2">
-      <t>ナカムラ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>タイスケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>264-0028</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>千葉県千葉市若葉区桜木x-x</t>
-    <rPh sb="0" eb="3">
-      <t>チバケン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チバシ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ワカバク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>サクラギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>岡崎　大悟</t>
-    <rPh sb="0" eb="2">
-      <t>オカザキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ダイゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>459-8004</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>愛知県名古屋市緑区有松x-x</t>
-    <rPh sb="0" eb="3">
-      <t>アイチケン</t>
-    </rPh>
-    <rPh sb="3" eb="7">
-      <t>ナゴヤシ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ミドリク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>アリマツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>斉藤　薫</t>
-    <rPh sb="0" eb="2">
-      <t>サイトウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カオル</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>330-0042</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>埼玉県さいたま市浦和区x-x</t>
-    <rPh sb="0" eb="3">
-      <t>サイタマケン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>ウラワク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コーポ〇〇303</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>山本　紀夫</t>
-    <rPh sb="0" eb="2">
-      <t>ヤマモト</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ノリオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>602-8345</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>京都府京都市上京区一番町x-x</t>
-    <rPh sb="0" eb="6">
-      <t>キョウトフキョウトシ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カミギョウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>イチバンチョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>前田　隆</t>
-    <rPh sb="0" eb="2">
-      <t>マエダ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>タカシ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -522,101 +239,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>樋村　礼子</t>
-    <rPh sb="0" eb="2">
-      <t>ヒムラ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>アヤコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>723-0047</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>広島県三原市青葉台x-x-x</t>
-    <rPh sb="0" eb="3">
-      <t>ヒロシマケン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ミハラシ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>アオバダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>服部　健介</t>
-    <rPh sb="0" eb="2">
-      <t>ハットリ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケンスケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>558-0014</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>大阪府大阪市住吉区x-x-x</t>
-    <rPh sb="0" eb="3">
-      <t>オオサカフ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>オオサカシ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>スミヨシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>水嶋　歩美</t>
-    <rPh sb="0" eb="2">
-      <t>ミズシマ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>アユミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>243-0423</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>神奈川県海老名市今里x-x-x</t>
-    <rPh sb="0" eb="4">
-      <t>カナガワケン</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>エビナ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>イマザト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>〇〇ガーデン806</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中山　浩江</t>
-    <rPh sb="0" eb="2">
-      <t>ナカヤマ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒロエ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -635,12 +270,436 @@
       <t>アオト</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふりがな</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田中　桃子</t>
+    <rPh sb="0" eb="2">
+      <t>たなか</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ももこ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>伊勢　洋司</t>
+    <rPh sb="0" eb="2">
+      <t>いせ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ようじ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>小林　希美</t>
+    <rPh sb="0" eb="2">
+      <t>こばやし</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>のぞみ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>萩原　芳夫</t>
+    <rPh sb="0" eb="2">
+      <t>はぎわら</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>よしお</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>内田　恵子</t>
+    <rPh sb="0" eb="2">
+      <t>うちだ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>けいこ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>三上　信一</t>
+    <rPh sb="0" eb="2">
+      <t>みかみ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>しんいち</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>北山　寛子</t>
+    <rPh sb="0" eb="2">
+      <t>きたやま</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ひろこ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>高木　和美</t>
+    <rPh sb="0" eb="2">
+      <t>たかぎ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>かずみ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>中村　泰輔</t>
+    <rPh sb="0" eb="2">
+      <t>なかむら</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>たいすけ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>岡崎　大悟</t>
+    <rPh sb="0" eb="2">
+      <t>おかざき</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>だいご</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>山本　紀夫</t>
+    <rPh sb="0" eb="2">
+      <t>やまもと</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>のりお</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>斉藤　薫</t>
+    <rPh sb="0" eb="2">
+      <t>さいとう</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>かおる</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>前田　隆</t>
+    <rPh sb="0" eb="2">
+      <t>まえだ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>たかし</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>樋村　礼子</t>
+    <rPh sb="0" eb="2">
+      <t>ひむら</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>あやこ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>服部　健介</t>
+    <rPh sb="0" eb="2">
+      <t>はっとり</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>けんすけ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>水嶋　歩美</t>
+    <rPh sb="0" eb="2">
+      <t>みずしま</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>あゆみ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>中山　浩江</t>
+    <rPh sb="0" eb="2">
+      <t>なかやま</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ひろえ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>男</t>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>279-0012</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇〇プラザ205</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>都道府県</t>
+    <rPh sb="0" eb="4">
+      <t>トドウフケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東京都</t>
+    <rPh sb="0" eb="3">
+      <t>トウキョウト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>千葉県</t>
+    <rPh sb="0" eb="3">
+      <t>チバケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>京都府</t>
+    <rPh sb="0" eb="3">
+      <t>キョウトフ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>愛知県</t>
+    <rPh sb="0" eb="3">
+      <t>アイチケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>世田谷区羽根木x-x-x</t>
+    <rPh sb="0" eb="4">
+      <t>セタガヤク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川口市柳根町x-x-x</t>
+    <rPh sb="0" eb="3">
+      <t>カワグチシ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヤナギ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ネ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>マチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>埼玉県</t>
+    <rPh sb="0" eb="2">
+      <t>サイタマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>広島県</t>
+    <rPh sb="0" eb="3">
+      <t>ヒロシマケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大阪府</t>
+    <rPh sb="0" eb="3">
+      <t>オオサカフ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神奈川県</t>
+    <rPh sb="0" eb="4">
+      <t>カナガワケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浦安市入船x-x-x</t>
+    <rPh sb="0" eb="3">
+      <t>ウラヤスシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イリフネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>港区白金x-x-x</t>
+    <rPh sb="0" eb="2">
+      <t>ミナトク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シロカネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>調布市仙川町x-x-x</t>
+    <rPh sb="0" eb="3">
+      <t>チョウフシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>センカワチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>京都市南区東寺町x-x</t>
+    <rPh sb="0" eb="3">
+      <t>キョウトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>トウジチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>千葉市若葉区桜木x-x</t>
+    <rPh sb="0" eb="3">
+      <t>チバシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ワカバク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクラギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名古屋市緑区有松x-x</t>
+    <rPh sb="0" eb="4">
+      <t>ナゴヤシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ミドリク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>アリマツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>京都市上京区一番町x-x</t>
+    <rPh sb="0" eb="2">
+      <t>キョウト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カミギョウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>イチバンチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さいたま市浦和区x-x</t>
+    <rPh sb="4" eb="5">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ウラワク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三原市青葉台x-x-x</t>
+    <rPh sb="0" eb="3">
+      <t>ミハラシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>アオバダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大阪市住吉区x-x-x</t>
+    <rPh sb="0" eb="1">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>サカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>スミヨシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県海老名市今里x-x-x</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="4">
+      <t>エビナ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イマザト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルバイト</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -691,7 +750,10 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -715,17 +777,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{014A25B8-F6A2-4AF8-8540-0807BB303CA5}" name="テーブル1" displayName="テーブル1" ref="A1:H18" totalsRowShown="0">
-  <autoFilter ref="A1:H18" xr:uid="{014A25B8-F6A2-4AF8-8540-0807BB303CA5}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{4EBC5701-40E3-4462-BF8C-D711FF1C1329}" name="NO" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{C2D14155-DAEE-420D-805D-74714140C464}" name="氏名"/>
-    <tableColumn id="3" xr3:uid="{DEA441FF-3EC3-4312-B2EC-0BE941872694}" name="性別" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{21E8C7F0-92B4-4CDD-952D-D0EFF8B571BD}" name="年齢" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{B50EFF96-9272-4F17-9063-158C2A82D028}" name="職業"/>
-    <tableColumn id="6" xr3:uid="{F32F153F-0E83-4586-ABD6-4B6D6CA885AC}" name="郵便番号"/>
-    <tableColumn id="7" xr3:uid="{22B4747C-CC07-42F2-87C0-10CA4B44F53E}" name="住所1"/>
-    <tableColumn id="8" xr3:uid="{C91DDAB0-D718-469A-AA9F-745488A76167}" name="住所2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:J19" totalsRowShown="0">
+  <autoFilter ref="A1:J19">
+    <filterColumn colId="4">
+      <customFilters>
+        <customFilter operator="greaterThanOrEqual" val="20"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="10">
+    <tableColumn id="1" name="NO" dataDxfId="3"/>
+    <tableColumn id="2" name="氏名"/>
+    <tableColumn id="10" name="ふりがな" dataDxfId="0">
+      <calculatedColumnFormula>PHONETIC(テーブル1[[#This Row],[氏名]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="性別" dataDxfId="2"/>
+    <tableColumn id="4" name="年齢" dataDxfId="1"/>
+    <tableColumn id="5" name="職業"/>
+    <tableColumn id="6" name="郵便番号"/>
+    <tableColumn id="11" name="都道府県"/>
+    <tableColumn id="7" name="住所1"/>
+    <tableColumn id="8" name="住所2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1027,8 +1099,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD7F899B-2E10-4078-9EFD-60FC31679396}">
-  <dimension ref="A1:H18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1036,15 +1108,17 @@
   <cols>
     <col min="1" max="1" width="6.19921875" customWidth="1"/>
     <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.19921875" customWidth="1"/>
-    <col min="4" max="4" width="7.69921875" customWidth="1"/>
-    <col min="5" max="5" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.19921875" customWidth="1"/>
+    <col min="5" max="5" width="7.69921875" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.59765625" customWidth="1"/>
+    <col min="9" max="9" width="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1052,432 +1126,584 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
+        <v>たなか　ももこ</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1">
-        <v>42</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="H2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
+        <v>いせ　ようじ</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="I3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1">
+        <v>42</v>
+      </c>
+      <c r="C4" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
+        <v>こばやし　のぞみ</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1">
         <v>28</v>
       </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1">
+        <v>43</v>
+      </c>
+      <c r="C5" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
+        <v>はぎわら　よしお</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+        <v>62</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1">
+        <v>44</v>
+      </c>
+      <c r="C6" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
+        <v>うちだ　けいこ</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1">
         <v>38</v>
       </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1">
+        <v>45</v>
+      </c>
+      <c r="C7" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
+        <v>みかみ　しんいち</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1">
         <v>18</v>
       </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="1">
+        <v>46</v>
+      </c>
+      <c r="C8" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
+        <v>きたやま　ひろこ</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1">
         <v>24</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" t="s">
         <v>23</v>
       </c>
-      <c r="F8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" t="s">
-        <v>36</v>
-      </c>
       <c r="H8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+        <v>61</v>
+      </c>
+      <c r="I8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1">
+        <v>47</v>
+      </c>
+      <c r="C9" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
+        <v>たかぎ　かずみ</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1">
         <v>33</v>
       </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+      <c r="H9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="1">
+        <v>48</v>
+      </c>
+      <c r="C10" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
+        <v>なかむら　たいすけ</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1">
         <v>33</v>
       </c>
-      <c r="E10" t="s">
-        <v>28</v>
-      </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="1">
+        <v>49</v>
+      </c>
+      <c r="C11" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
+        <v>おかざき　だいご</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="1">
         <v>26</v>
       </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="1">
+        <v>50</v>
+      </c>
+      <c r="C12" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
+        <v>やまもと　のりお</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1">
         <v>41</v>
       </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+      <c r="H12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
+        <v>さいとう　かおる</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1">
+        <v>31</v>
+      </c>
+      <c r="F13" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="1">
-        <v>31</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>48</v>
-      </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+        <v>67</v>
+      </c>
+      <c r="I13" t="s">
+        <v>78</v>
+      </c>
+      <c r="J13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="1">
+        <v>52</v>
+      </c>
+      <c r="C14" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
+        <v>まえだ　たかし</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="1">
         <v>17</v>
       </c>
-      <c r="E14" t="s">
-        <v>15</v>
-      </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+      <c r="I14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="1">
+        <v>53</v>
+      </c>
+      <c r="C15" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
+        <v>ひむら　あやこ</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1">
         <v>29</v>
       </c>
-      <c r="E15" t="s">
-        <v>19</v>
-      </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+        <v>33</v>
+      </c>
+      <c r="H15" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="1">
+        <v>54</v>
+      </c>
+      <c r="C16" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
+        <v>はっとり　けんすけ</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="1">
         <v>21</v>
       </c>
-      <c r="E16" t="s">
-        <v>23</v>
-      </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="G16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+      <c r="H16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="1">
+        <v>55</v>
+      </c>
+      <c r="C17" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
+        <v>みずしま　あゆみ</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="1">
         <v>31</v>
       </c>
-      <c r="E17" t="s">
-        <v>19</v>
-      </c>
       <c r="F17" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="G17" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="H17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+        <v>70</v>
+      </c>
+      <c r="I17" t="s">
+        <v>81</v>
+      </c>
+      <c r="J17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="1">
+        <v>56</v>
+      </c>
+      <c r="C18" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
+        <v>なかやま　ひろえ</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1">
         <v>18</v>
       </c>
-      <c r="E18" t="s">
-        <v>15</v>
-      </c>
       <c r="F18" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>69</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
+        <v>はぎわら　よしお</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="1">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" t="s">
+        <v>62</v>
+      </c>
+      <c r="I19" t="s">
+        <v>71</v>
+      </c>
+      <c r="J19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/22_顧客名簿.xlsx
+++ b/22_顧客名簿.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="80">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1"/>
@@ -444,21 +444,6 @@
       <t>ひろえ</t>
     </rPh>
     <phoneticPr fontId="1" type="Hiragana"/>
-  </si>
-  <si>
-    <t>男</t>
-    <rPh sb="0" eb="1">
-      <t>オトコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>279-0012</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〇〇プラザ205</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>都道府県</t>
@@ -752,13 +737,13 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -777,8 +762,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:J19" totalsRowShown="0">
-  <autoFilter ref="A1:J19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:J18" totalsRowShown="0">
+  <autoFilter ref="A1:J18">
     <filterColumn colId="4">
       <customFilters>
         <customFilter operator="greaterThanOrEqual" val="20"/>
@@ -788,11 +773,11 @@
   <tableColumns count="10">
     <tableColumn id="1" name="NO" dataDxfId="3"/>
     <tableColumn id="2" name="氏名"/>
-    <tableColumn id="10" name="ふりがな" dataDxfId="0">
+    <tableColumn id="10" name="ふりがな" dataDxfId="2">
       <calculatedColumnFormula>PHONETIC(テーブル1[[#This Row],[氏名]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="性別" dataDxfId="2"/>
-    <tableColumn id="4" name="年齢" dataDxfId="1"/>
+    <tableColumn id="3" name="性別" dataDxfId="1"/>
+    <tableColumn id="4" name="年齢" dataDxfId="0"/>
     <tableColumn id="5" name="職業"/>
     <tableColumn id="6" name="郵便番号"/>
     <tableColumn id="11" name="都道府県"/>
@@ -1100,7 +1085,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1141,7 +1126,7 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
@@ -1174,10 +1159,10 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
@@ -1231,10 +1216,10 @@
         <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
@@ -1255,16 +1240,16 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J5" t="s">
         <v>18</v>
@@ -1294,10 +1279,10 @@
         <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
@@ -1345,16 +1330,16 @@
         <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s">
         <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J8" t="s">
         <v>24</v>
@@ -1384,10 +1369,10 @@
         <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
@@ -1414,10 +1399,10 @@
         <v>26</v>
       </c>
       <c r="H10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
@@ -1444,10 +1429,10 @@
         <v>27</v>
       </c>
       <c r="H11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
@@ -1474,10 +1459,10 @@
         <v>30</v>
       </c>
       <c r="H12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
@@ -1504,10 +1489,10 @@
         <v>28</v>
       </c>
       <c r="H13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J13" t="s">
         <v>29</v>
@@ -1564,10 +1549,10 @@
         <v>33</v>
       </c>
       <c r="H15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
@@ -1588,16 +1573,16 @@
         <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s">
         <v>34</v>
       </c>
       <c r="H16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
@@ -1624,16 +1609,16 @@
         <v>35</v>
       </c>
       <c r="H17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1661,42 +1646,9 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" t="str">
-        <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
-        <v>はぎわら　よしお</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="1">
-        <v>20</v>
-      </c>
-      <c r="F19" t="s">
-        <v>82</v>
-      </c>
-      <c r="G19" t="s">
-        <v>58</v>
-      </c>
-      <c r="H19" t="s">
-        <v>62</v>
-      </c>
-      <c r="I19" t="s">
-        <v>71</v>
-      </c>
-      <c r="J19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="A19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
